--- a/example_data/clean_Guess_1167_part1_part2_2025-07-02_18h32.03.916.xlsx
+++ b/example_data/clean_Guess_1167_part1_part2_2025-07-02_18h32.03.916.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\teaching_Rburg\WiSe25_26\MemoryEnhancement\example_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\teaching_Rburg\WiSe25_26\MemoryEnhancement\example_data\example_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0979FAB7-38B6-4D64-898C-4FD1CF4084C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB82C6B-07CD-44F3-8ABF-671CEA408577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{7A4BEA71-E9F5-4A13-B0FA-8890BE750C03}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{7A4BEA71-E9F5-4A13-B0FA-8890BE750C03}"/>
   </bookViews>
   <sheets>
     <sheet name="Guess_1167_part1_part2_2025-07-" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="261">
   <si>
     <t>trial_type</t>
   </si>
@@ -1681,9 +1681,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0D51AF-4B45-4F21-AC5E-1007F08FA05D}">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -5383,26 +5385,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="J82">
-        <v>1167</v>
-      </c>
-      <c r="K82">
-        <v>2003</v>
-      </c>
-      <c r="L82" t="s">
-        <v>16</v>
-      </c>
-      <c r="M82" t="s">
-        <v>17</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
